--- a/trf-external-user.xlsx
+++ b/trf-external-user.xlsx
@@ -7,19 +7,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19730" windowHeight="4140" tabRatio="732"/>
   </bookViews>
   <sheets>
-    <sheet name="temp (2)" sheetId="20" r:id="rId1"/>
-    <sheet name="temp" sheetId="19" r:id="rId2"/>
-    <sheet name="Secondary Review (Full) (3)" sheetId="6" r:id="rId3"/>
-    <sheet name="Accessioned" sheetId="5" r:id="rId4"/>
-    <sheet name="Reportable Hold" sheetId="10" r:id="rId5"/>
-    <sheet name="Additional Information Input" sheetId="12" r:id="rId6"/>
-    <sheet name="Non-Testable Hold" sheetId="8" r:id="rId7"/>
-    <sheet name="Reject" sheetId="17" r:id="rId8"/>
-    <sheet name="Approved" sheetId="15" r:id="rId9"/>
-    <sheet name="Non-Reportable Hold" sheetId="7" r:id="rId10"/>
-    <sheet name="Received" sheetId="1" r:id="rId11"/>
-    <sheet name="NA" sheetId="13" r:id="rId12"/>
-    <sheet name="Pending" sheetId="14" r:id="rId13"/>
+    <sheet name="temp" sheetId="19" r:id="rId1"/>
+    <sheet name="Secondary Review (Full) (3)" sheetId="6" r:id="rId2"/>
+    <sheet name="Accessioned" sheetId="5" r:id="rId3"/>
+    <sheet name="Reportable Hold" sheetId="10" r:id="rId4"/>
+    <sheet name="Additional Information Input" sheetId="12" r:id="rId5"/>
+    <sheet name="Non-Testable Hold" sheetId="8" r:id="rId6"/>
+    <sheet name="Reject" sheetId="17" r:id="rId7"/>
+    <sheet name="Approved" sheetId="15" r:id="rId8"/>
+    <sheet name="Non-Reportable Hold" sheetId="7" r:id="rId9"/>
+    <sheet name="Received" sheetId="1" r:id="rId10"/>
+    <sheet name="NA" sheetId="13" r:id="rId11"/>
+    <sheet name="Pending" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="180">
   <si>
     <t>Specimen ID Number</t>
   </si>
@@ -580,10 +579,10 @@
     <t>Dr. Thuong OP1</t>
   </si>
   <si>
-    <t>//*[@id="clinicInfoSection"]/div/div/div[1]/nz-form-item/nz-form-control/div/div/nz-select/nz-select-top-control</t>
-  </si>
-  <si>
     <t>02/20/2023</t>
+  </si>
+  <si>
+    <t>//*[@id="clinicInfoSection"]/div/div/div[1]/nz-form-item/nz-form-control/div/div/nz-select</t>
   </si>
 </sst>
 </file>
@@ -1458,94 +1457,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="30.90625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="27" style="21" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" style="21" customWidth="1"/>
+    <col min="10" max="12" width="8.7265625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="8" style="21" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" style="21" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" style="21" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="9.1796875" style="21" customWidth="1"/>
+    <col min="19" max="19" width="30" style="21" customWidth="1"/>
+    <col min="20" max="20" width="22.1796875" customWidth="1"/>
+    <col min="21" max="21" width="34.1796875" customWidth="1"/>
+    <col min="22" max="22" width="17.81640625" customWidth="1"/>
+    <col min="23" max="23" width="19.08984375" customWidth="1"/>
+    <col min="24" max="24" width="17.81640625" customWidth="1"/>
+    <col min="25" max="25" width="13.26953125" style="21" customWidth="1"/>
+    <col min="26" max="26" width="17.81640625" style="21" customWidth="1"/>
+    <col min="27" max="27" width="30.90625" style="21" customWidth="1"/>
+    <col min="28" max="28" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="AB1" s="26" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>105</v>
+      <c r="B2" t="s">
+        <v>106</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="P2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" t="s">
+        <v>107</v>
+      </c>
+      <c r="W2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA2" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y3" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="Z3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA3" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="23" t="str">
+        <f t="shared" ref="F4:G4" si="0">$A4</f>
+        <v>1000092</v>
+      </c>
+      <c r="G4" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>1000092</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="23" t="str">
+        <f t="shared" ref="J4" si="1">A4</f>
+        <v>1000092</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="21">
+        <v>11111</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="23" t="str">
+        <f t="shared" ref="P4:R4" si="2">$A4</f>
+        <v>1000092</v>
+      </c>
+      <c r="Q4" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>1000092</v>
+      </c>
+      <c r="R4" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>1000092</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z4" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="AA4" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>147</v>
       </c>
@@ -1553,690 +1844,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.36328125" customWidth="1"/>
-    <col min="11" max="11" width="16.6328125" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1796875" customWidth="1"/>
-    <col min="23" max="23" width="30" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.1796875" customWidth="1"/>
-    <col min="25" max="25" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.81640625" customWidth="1"/>
-    <col min="27" max="27" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="17.81640625" customWidth="1"/>
-    <col min="32" max="32" width="30.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" t="s">
-        <v>107</v>
-      </c>
-      <c r="S2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T2" t="s">
-        <v>105</v>
-      </c>
-      <c r="U2" t="s">
-        <v>105</v>
-      </c>
-      <c r="V2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W2" t="s">
-        <v>105</v>
-      </c>
-      <c r="X2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f>A4</f>
-        <v>1334058</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="str">
-        <f>$A4</f>
-        <v>1334058</v>
-      </c>
-      <c r="K4" s="1" t="str">
-        <f>$A4</f>
-        <v>1334058</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="1" t="str">
-        <f>A4</f>
-        <v>1334058</v>
-      </c>
-      <c r="O4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4">
-        <v>11111</v>
-      </c>
-      <c r="S4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="1" t="str">
-        <f>$A4</f>
-        <v>1334058</v>
-      </c>
-      <c r="U4" s="1" t="str">
-        <f>$A4</f>
-        <v>1334058</v>
-      </c>
-      <c r="V4" s="1" t="str">
-        <f>$A4</f>
-        <v>1334058</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M4" r:id="rId1"/>
-    <hyperlink ref="A19" r:id="rId2"/>
-    <hyperlink ref="A20" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC20"/>
   <sheetViews>
@@ -3342,7 +2957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
@@ -3428,7 +3043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K14"/>
   <sheetViews>
@@ -3515,402 +3130,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB9"/>
-  <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="27" style="21" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" style="21" customWidth="1"/>
-    <col min="10" max="12" width="8.7265625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="8" style="21" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" style="21" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" style="21" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" style="21" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="21" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="30" style="21" customWidth="1"/>
-    <col min="20" max="20" width="22.1796875" customWidth="1"/>
-    <col min="21" max="21" width="34.1796875" customWidth="1"/>
-    <col min="22" max="22" width="17.81640625" customWidth="1"/>
-    <col min="23" max="23" width="19.08984375" customWidth="1"/>
-    <col min="24" max="24" width="17.81640625" customWidth="1"/>
-    <col min="25" max="25" width="13.26953125" style="21" customWidth="1"/>
-    <col min="26" max="26" width="17.81640625" style="21" customWidth="1"/>
-    <col min="27" max="27" width="30.90625" style="21" customWidth="1"/>
-    <col min="28" max="28" width="17.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="T2" t="s">
-        <v>109</v>
-      </c>
-      <c r="U2" t="s">
-        <v>109</v>
-      </c>
-      <c r="V2" t="s">
-        <v>107</v>
-      </c>
-      <c r="W2" t="s">
-        <v>107</v>
-      </c>
-      <c r="X2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA2" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z3" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA3" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="23" t="str">
-        <f t="shared" ref="F4:G4" si="0">$A4</f>
-        <v>1000092</v>
-      </c>
-      <c r="G4" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>1000092</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="23" t="str">
-        <f t="shared" ref="J4" si="1">A4</f>
-        <v>1000092</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="21">
-        <v>11111</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="23" t="str">
-        <f t="shared" ref="P4:R4" si="2">$A4</f>
-        <v>1000092</v>
-      </c>
-      <c r="Q4" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>1000092</v>
-      </c>
-      <c r="R4" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>1000092</v>
-      </c>
-      <c r="S4" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1"/>
-    <hyperlink ref="I4" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG21"/>
   <sheetViews>
@@ -4610,7 +3829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD20"/>
   <sheetViews>
@@ -5234,7 +4453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ20"/>
   <sheetViews>
@@ -5948,6 +5167,733 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q4" r:id="rId1"/>
+    <hyperlink ref="A20" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" customWidth="1"/>
+    <col min="16" max="16" width="14.81640625" customWidth="1"/>
+    <col min="17" max="17" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1796875" customWidth="1"/>
+    <col min="27" max="27" width="30" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.1796875" customWidth="1"/>
+    <col min="29" max="29" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.81640625" customWidth="1"/>
+    <col min="31" max="31" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="17.81640625" customWidth="1"/>
+    <col min="36" max="36" width="30.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V2" t="s">
+        <v>107</v>
+      </c>
+      <c r="W2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>A4</f>
+        <v>1334064</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f>$A4</f>
+        <v>1334064</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f>$A4</f>
+        <v>1334064</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f>A4</f>
+        <v>1334064</v>
+      </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4">
+        <v>11111</v>
+      </c>
+      <c r="W4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f>$A4</f>
+        <v>1334064</v>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f>$A4</f>
+        <v>1334064</v>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <f>$A4</f>
+        <v>1334064</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6330,11 +6276,11 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>A4</f>
-        <v>1334064</v>
+        <v>1334063</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>43</v>
@@ -6346,7 +6292,7 @@
         <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>1</v>
@@ -6365,11 +6311,11 @@
       </c>
       <c r="N4" s="1" t="str">
         <f>$A4</f>
-        <v>1334064</v>
+        <v>1334063</v>
       </c>
       <c r="O4" s="1" t="str">
         <f>$A4</f>
-        <v>1334064</v>
+        <v>1334063</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>93</v>
@@ -6379,7 +6325,7 @@
       </c>
       <c r="R4" s="1" t="str">
         <f>A4</f>
-        <v>1334064</v>
+        <v>1334063</v>
       </c>
       <c r="S4" t="s">
         <v>19</v>
@@ -6395,15 +6341,15 @@
       </c>
       <c r="X4" s="1" t="str">
         <f>$A4</f>
-        <v>1334064</v>
+        <v>1334063</v>
       </c>
       <c r="Y4" s="1" t="str">
         <f>$A4</f>
-        <v>1334064</v>
+        <v>1334063</v>
       </c>
       <c r="Z4" s="1" t="str">
         <f>$A4</f>
-        <v>1334064</v>
+        <v>1334063</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>110</v>
@@ -6674,7 +6620,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6689,733 +6635,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="17.81640625" customWidth="1"/>
-    <col min="9" max="10" width="15.453125" customWidth="1"/>
-    <col min="11" max="11" width="27" customWidth="1"/>
-    <col min="12" max="12" width="13.26953125" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" customWidth="1"/>
-    <col min="15" max="15" width="16.6328125" customWidth="1"/>
-    <col min="16" max="16" width="14.81640625" customWidth="1"/>
-    <col min="17" max="17" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.1796875" customWidth="1"/>
-    <col min="27" max="27" width="30" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.1796875" customWidth="1"/>
-    <col min="29" max="29" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.81640625" customWidth="1"/>
-    <col min="31" max="31" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="17.81640625" customWidth="1"/>
-    <col min="36" max="36" width="30.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S2" t="s">
-        <v>105</v>
-      </c>
-      <c r="T2" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" t="s">
-        <v>105</v>
-      </c>
-      <c r="V2" t="s">
-        <v>107</v>
-      </c>
-      <c r="W2" t="s">
-        <v>108</v>
-      </c>
-      <c r="X2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f>A4</f>
-        <v>1334063</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="1" t="str">
-        <f>$A4</f>
-        <v>1334063</v>
-      </c>
-      <c r="O4" s="1" t="str">
-        <f>$A4</f>
-        <v>1334063</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="1" t="str">
-        <f>A4</f>
-        <v>1334063</v>
-      </c>
-      <c r="S4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4">
-        <v>11111</v>
-      </c>
-      <c r="W4" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" s="1" t="str">
-        <f>$A4</f>
-        <v>1334063</v>
-      </c>
-      <c r="Y4" s="1" t="str">
-        <f>$A4</f>
-        <v>1334063</v>
-      </c>
-      <c r="Z4" s="1" t="str">
-        <f>$A4</f>
-        <v>1334063</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q4" r:id="rId1"/>
-    <hyperlink ref="A20" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ21"/>
   <sheetViews>
@@ -8143,7 +7362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG21"/>
   <sheetViews>
@@ -8838,4 +8057,681 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.36328125" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1796875" customWidth="1"/>
+    <col min="23" max="23" width="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.1796875" customWidth="1"/>
+    <col min="25" max="25" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.81640625" customWidth="1"/>
+    <col min="27" max="27" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="17.81640625" customWidth="1"/>
+    <col min="32" max="32" width="30.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>A4</f>
+        <v>1334058</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>$A4</f>
+        <v>1334058</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>$A4</f>
+        <v>1334058</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f>A4</f>
+        <v>1334058</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4">
+        <v>11111</v>
+      </c>
+      <c r="S4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f>$A4</f>
+        <v>1334058</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f>$A4</f>
+        <v>1334058</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f>$A4</f>
+        <v>1334058</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M4" r:id="rId1"/>
+    <hyperlink ref="A19" r:id="rId2"/>
+    <hyperlink ref="A20" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+</worksheet>
 </file>
--- a/trf-external-user.xlsx
+++ b/trf-external-user.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="180">
   <si>
     <t>Specimen ID Number</t>
   </si>
@@ -555,12 +555,6 @@
     <t>Clinic Name</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>1000092</t>
-  </si>
-  <si>
     <t>//*[@id="testSelectionSection"]/div/div/div[1]/nz-form-item/nz-form-control/div[1]/div/nz-radio-group/label[1]/span[1]/input</t>
   </si>
   <si>
@@ -582,7 +576,13 @@
     <t>02/20/2023</t>
   </si>
   <si>
-    <t>//*[@id="clinicInfoSection"]/div/div/div[1]/nz-form-item/nz-form-control/div/div/nz-select</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>1000103</t>
+  </si>
+  <si>
+    <t>1000104</t>
   </si>
 </sst>
 </file>
@@ -1457,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1567,7 +1567,7 @@
         <v>92</v>
       </c>
       <c r="Y1" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Z1" s="21" t="s">
         <v>169</v>
@@ -1667,13 +1667,13 @@
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>69</v>
@@ -1736,10 +1736,10 @@
         <v>88</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z3" s="22" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="AA3" s="22" t="s">
         <v>90</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1762,12 +1762,12 @@
         <v>13</v>
       </c>
       <c r="F4" s="23" t="str">
-        <f t="shared" ref="F4:G4" si="0">$A4</f>
-        <v>1000092</v>
+        <f t="shared" ref="F4:G5" si="0">$A4</f>
+        <v>1000103</v>
       </c>
       <c r="G4" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>1000092</v>
+        <v>1000103</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>93</v>
@@ -1776,8 +1776,8 @@
         <v>17</v>
       </c>
       <c r="J4" s="23" t="str">
-        <f t="shared" ref="J4" si="1">A4</f>
-        <v>1000092</v>
+        <f t="shared" ref="J4:J5" si="1">A4</f>
+        <v>1000103</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>19</v>
@@ -1792,59 +1792,166 @@
         <v>51</v>
       </c>
       <c r="P4" s="23" t="str">
-        <f t="shared" ref="P4:R4" si="2">$A4</f>
-        <v>1000092</v>
+        <f t="shared" ref="P4:R5" si="2">$A4</f>
+        <v>1000103</v>
       </c>
       <c r="Q4" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>1000092</v>
+        <v>1000103</v>
       </c>
       <c r="R4" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>1000092</v>
+        <v>1000103</v>
       </c>
       <c r="S4" s="23" t="s">
         <v>110</v>
       </c>
       <c r="Y4" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z4" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>1000104</v>
+      </c>
+      <c r="G5" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>1000104</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>1000104</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="21">
+        <v>11111</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>1000104</v>
+      </c>
+      <c r="Q5" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>1000104</v>
+      </c>
+      <c r="R5" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>1000104</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y5" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="AA4" s="21" t="s">
+      <c r="Z5" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1"/>
-    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/trf-external-user.xlsx
+++ b/trf-external-user.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="183">
   <si>
     <t>Specimen ID Number</t>
   </si>
@@ -579,10 +579,19 @@
     <t>true</t>
   </si>
   <si>
-    <t>1000103</t>
-  </si>
-  <si>
-    <t>1000104</t>
+    <t>Upload Documentation</t>
+  </si>
+  <si>
+    <t>upload_document</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Pictures\image(12086).png</t>
+  </si>
+  <si>
+    <t>1000105</t>
+  </si>
+  <si>
+    <t>1000106</t>
   </si>
 </sst>
 </file>
@@ -777,7 +786,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -831,6 +840,10 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1457,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -1466,138 +1479,142 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="27" style="21" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" style="21" customWidth="1"/>
-    <col min="10" max="12" width="8.7265625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="8" style="21" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" style="21" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" style="21" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" style="21" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="21" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="30" style="21" customWidth="1"/>
-    <col min="20" max="20" width="22.1796875" customWidth="1"/>
-    <col min="21" max="21" width="34.1796875" customWidth="1"/>
-    <col min="22" max="22" width="17.81640625" customWidth="1"/>
-    <col min="23" max="23" width="19.08984375" customWidth="1"/>
-    <col min="24" max="24" width="17.81640625" customWidth="1"/>
-    <col min="25" max="25" width="13.26953125" style="21" customWidth="1"/>
-    <col min="26" max="26" width="17.81640625" style="21" customWidth="1"/>
-    <col min="27" max="27" width="30.90625" style="21" customWidth="1"/>
-    <col min="28" max="28" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="27" style="21" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" style="21" customWidth="1"/>
+    <col min="11" max="13" width="8.7265625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="8" style="21" customWidth="1"/>
+    <col min="15" max="15" width="14.26953125" style="21" customWidth="1"/>
+    <col min="16" max="16" width="12.1796875" style="21" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="21" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" style="21" customWidth="1"/>
+    <col min="20" max="20" width="30" style="21" customWidth="1"/>
+    <col min="21" max="21" width="22.1796875" customWidth="1"/>
+    <col min="22" max="22" width="34.1796875" customWidth="1"/>
+    <col min="23" max="23" width="17.81640625" customWidth="1"/>
+    <col min="24" max="24" width="19.08984375" customWidth="1"/>
+    <col min="25" max="25" width="17.81640625" customWidth="1"/>
+    <col min="26" max="26" width="13.26953125" style="21" customWidth="1"/>
+    <col min="27" max="27" width="17.81640625" style="21" customWidth="1"/>
+    <col min="28" max="28" width="30.90625" style="21" customWidth="1"/>
+    <col min="29" max="29" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>56</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>57</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>58</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>91</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Z1" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AC1" s="26" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="D2" s="21" t="s">
         <v>105</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="G2" s="21" t="s">
         <v>105</v>
       </c>
@@ -1614,20 +1631,20 @@
         <v>105</v>
       </c>
       <c r="L2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="N2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="P2" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="P2" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="Q2" s="21" t="s">
         <v>105</v>
       </c>
@@ -1637,321 +1654,347 @@
       <c r="S2" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="T2" t="s">
-        <v>109</v>
+      <c r="T2" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="U2" t="s">
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W2" t="s">
         <v>107</v>
       </c>
       <c r="X2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="Z2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA2" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AB2" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="N3" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="O3" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="P3" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="Q3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="R3" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="S3" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="T3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Z3" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="AA3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AB3" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23" t="str">
-        <f t="shared" ref="F4:G5" si="0">$A4</f>
-        <v>1000103</v>
-      </c>
       <c r="G4" s="23" t="str">
+        <f t="shared" ref="G4:H5" si="0">$A4</f>
+        <v>1000105</v>
+      </c>
+      <c r="H4" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>1000103</v>
-      </c>
-      <c r="H4" s="23" t="s">
+        <v>1000105</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="J4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="23" t="str">
-        <f t="shared" ref="J4:J5" si="1">A4</f>
-        <v>1000103</v>
-      </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="23" t="str">
+        <f t="shared" ref="K4:K5" si="1">A4</f>
+        <v>1000105</v>
+      </c>
+      <c r="L4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="M4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="21">
+      <c r="N4" s="21">
         <v>11111</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="P4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="23" t="str">
-        <f t="shared" ref="P4:R5" si="2">$A4</f>
-        <v>1000103</v>
-      </c>
       <c r="Q4" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>1000103</v>
+        <f t="shared" ref="Q4:S5" si="2">$A4</f>
+        <v>1000105</v>
       </c>
       <c r="R4" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>1000103</v>
-      </c>
-      <c r="S4" s="23" t="s">
+        <v>1000105</v>
+      </c>
+      <c r="S4" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>1000105</v>
+      </c>
+      <c r="T4" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Y4" s="23" t="s">
+      <c r="Z4" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="Z4" s="21" t="s">
+      <c r="AA4" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" s="21" t="s">
+      <c r="AB4" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>1000104</v>
       </c>
       <c r="G5" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>1000104</v>
-      </c>
-      <c r="H5" s="23" t="s">
+        <v>1000106</v>
+      </c>
+      <c r="H5" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>1000106</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="23" t="str">
+      <c r="K5" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>1000104</v>
-      </c>
-      <c r="K5" s="21" t="s">
+        <v>1000106</v>
+      </c>
+      <c r="L5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="M5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="21">
+      <c r="N5" s="21">
         <v>11111</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="P5" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="P5" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>1000104</v>
       </c>
       <c r="Q5" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>1000104</v>
+        <v>1000106</v>
       </c>
       <c r="R5" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>1000104</v>
-      </c>
-      <c r="S5" s="23" t="s">
+        <v>1000106</v>
+      </c>
+      <c r="S5" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>1000106</v>
+      </c>
+      <c r="T5" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="Z5" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="AA5" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AB5" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B6" s="27"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B7" s="27"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B8" s="27"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B9" s="27"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B10" s="27"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B11" s="27"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B12" s="27"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B13" s="27"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B14" s="27"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B15" s="27"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B16" s="27"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="27"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="27"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="27"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="27"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>147</v>
       </c>
+      <c r="B21" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A21" r:id="rId1"/>
-    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="J5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
